--- a/prototype/halflife-oukwa-100.xlsx
+++ b/prototype/halflife-oukwa-100.xlsx
@@ -343,6 +343,14 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="49000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:numRef>
@@ -632,11 +640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126885336"/>
-        <c:axId val="-2127052728"/>
+        <c:axId val="2126424680"/>
+        <c:axId val="2126430696"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2126885336"/>
+        <c:axId val="2126424680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127052728"/>
+        <c:crossAx val="2126430696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -681,7 +689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127052728"/>
+        <c:axId val="2126430696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -717,7 +725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126885336"/>
+        <c:crossAx val="2126424680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
